--- a/IIProyectoDiseno/src/java/files/DatosProyecto1.xlsx
+++ b/IIProyectoDiseno/src/java/files/DatosProyecto1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">erew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASISTENTE</t>
   </si>
   <si>
     <t xml:space="preserve">4-4444-4444</t>
@@ -423,14 +426,14 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -511,24 +514,24 @@
         <v>22</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>17</v>
@@ -536,19 +539,19 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>17</v>
@@ -556,22 +559,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -607,27 +610,27 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3</v>
@@ -635,10 +638,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -646,10 +649,10 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>4</v>
@@ -657,10 +660,10 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
@@ -668,10 +671,10 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>4</v>
@@ -701,23 +704,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -745,76 +748,76 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="4" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -823,38 +826,38 @@
         <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -863,18 +866,18 @@
         <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -883,18 +886,18 @@
         <v>6</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>
@@ -903,10 +906,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
